--- a/GuestBook/myLogger.xlsx
+++ b/GuestBook/myLogger.xlsx
@@ -15,12 +15,12 @@
   <sheets>
     <sheet name="MyExcelLogger" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>DateTime</t>
   </si>
@@ -38,12 +38,403 @@
   </si>
   <si>
     <t>Пользователь User 112 написал сообщение польз 112 ещё одно сообщение</t>
+  </si>
+  <si>
+    <t>2024-06-23 11:29:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь  вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-06-23 11:30:34</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:10</t>
+  </si>
+  <si>
+    <t>Незарегистрированный пользователь Student 1 пытался войти в вистему</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:21</t>
+  </si>
+  <si>
+    <t>Пользователь Student 1 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>Пользователь Student 1 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:23</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:34</t>
+  </si>
+  <si>
+    <t>Пользователь Student 1 попытался повторно зарегистрироваться</t>
+  </si>
+  <si>
+    <t>Пользователь Student 1 не прошёл валидацию формы при регистрации)</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:42</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:43</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:39:53</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:43:26</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:43:31</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:43:32</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:43:34</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:43:37</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:43:38</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:39</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:52</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:53</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:54</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:44:59</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:45:29</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:45:30</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:30</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:32</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:34</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:42</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:58</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:46:59</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:47:53</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:47:54</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:47:55</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:48:00</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:48:39</t>
+  </si>
+  <si>
+    <t>Пользователь User 4 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>Пользователь User 4 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:48:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:48:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:48:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:48:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:54:32</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:54:33</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:54:34</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:54:39</t>
+  </si>
+  <si>
+    <t>2024-06-28 10:54:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:27:09</t>
+  </si>
+  <si>
+    <t>Пользователь Agrtyuiop вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:27:10</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:27:11</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:13</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:14</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:15</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:17</t>
+  </si>
+  <si>
+    <t>Пользователь Agrtyuiop вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:19</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:21</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:31:40</t>
+  </si>
+  <si>
+    <t>Незарегистрированный пользователь Agrtyuiop пытался войти в вистему</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:32:02</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 вошёл в систему (log in)</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:32:13</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:32:34</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 написал сообщение 202440628</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:02</t>
+  </si>
+  <si>
+    <t>Пользователь Agrtyuiop успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:15</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 написал сообщение Agrtyuiop 20240628</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:21</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:31</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:32</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:41</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:24:34</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:24:40</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:24:57</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:25:02</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:25:43</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:25:51</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:26:09</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 написал сообщение Сообщение 1</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:26:31</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:27:18</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:27:34</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 написал сообщение Юзер 1, сообщение 1</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:27:42</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:27:55</t>
+  </si>
+  <si>
+    <t>Пользователь User 112 написал сообщение Юзер 1, сообщенне 2</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:28:07</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 попытался повторно зарегистрироваться</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 не прошёл валидацию формы при регистрации)</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:28:17</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:28:41</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:28:57</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 вошёл в систему (log in)</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:28:59</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:29:12</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение Юзер 1 сообщение 3</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:31:25</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:31:26</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:41:41</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:41:45</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:41:48</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:41:53</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:41:59</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:42:51</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:42:52</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:42:53</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:43:09</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-07-14 22:43:38</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение юзер 2 сообщение 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -386,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -394,34 +785,3155 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/GuestBook/myLogger.xlsx
+++ b/GuestBook/myLogger.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>DateTime</t>
   </si>
@@ -428,6 +428,108 @@
   </si>
   <si>
     <t>Пользователь User 1 написал сообщение юзер 2 сообщение 1</t>
+  </si>
+  <si>
+    <t>2024-07-16 20:38:36</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 не удалось отправить сообщение</t>
+  </si>
+  <si>
+    <t>2024-07-16 20:38:45</t>
+  </si>
+  <si>
+    <t>2024-07-16 20:38:47</t>
+  </si>
+  <si>
+    <t>2024-07-16 20:38:55</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 вошёл в систему (log in)</t>
+  </si>
+  <si>
+    <t>2024-07-16 20:38:56</t>
+  </si>
+  <si>
+    <t>2024-07-16 20:39:03</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 2: фкфукефкефке</t>
+  </si>
+  <si>
+    <t>2024-07-17 22:59:12</t>
+  </si>
+  <si>
+    <t>2024-07-17 22:59:14</t>
+  </si>
+  <si>
+    <t>2024-07-17 22:59:20</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1: 12312313</t>
+  </si>
+  <si>
+    <t>2024-07-17 22:59:44</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:02:22</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:33:52</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:34:03</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:34:31</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:36:14</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:36:29</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:55:16</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:55:24</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1:123123</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:56:54</t>
+  </si>
+  <si>
+    <t>2024-07-17 23:57:08</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1: 22222</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:07:01</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:13:24</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:19:58</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:20:13</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:20:20</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:20:22</t>
+  </si>
+  <si>
+    <t>2024-07-18 00:20:33</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 2: 2312323231</t>
   </si>
 </sst>
 </file>
@@ -777,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3932,6 +4034,222 @@
         <v>135</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/GuestBook/myLogger.xlsx
+++ b/GuestBook/myLogger.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>DateTime</t>
   </si>
@@ -530,6 +530,288 @@
   </si>
   <si>
     <t>Пользователь User 2 написал сообщение 2: 2312323231</t>
+  </si>
+  <si>
+    <t>2024-07-18 10:43:22</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 2; 33333</t>
+  </si>
+  <si>
+    <t>2024-07-18 10:43:41</t>
+  </si>
+  <si>
+    <t>2024-07-18 10:47:13</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 2: 33333</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:09:37</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 2:23231</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:09:49</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:10:00</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:10:27</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:14:23</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:15:25</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:17:03</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:22:54</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:24:11</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:24:45</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:25:33</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:25:36</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:26:06</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:26:16</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:26:28</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1:7777777</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:26:56</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:27:11</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:28:19</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:28:32</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:28:39</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:28:58</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1: вапвапвап</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:34:52</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:35:00</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:35:07</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:35:33</t>
+  </si>
+  <si>
+    <t>Пользователь User 15 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>Пользователь User 15 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:35:50</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 15: ррркнуг</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:36:19</t>
+  </si>
+  <si>
+    <t>Пользователь User 15 вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:39:04</t>
+  </si>
+  <si>
+    <t>Пользователь User 16 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:39:16</t>
+  </si>
+  <si>
+    <t>Пользователь User 16 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:39:27</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 16: вапвпвпа</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:39:41</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:39:46</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 16: кенкен</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:39:58</t>
+  </si>
+  <si>
+    <t>Пользователь User 16 вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:07</t>
+  </si>
+  <si>
+    <t>Пользователь User 16 вошёл в систему (log in)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:10</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:14</t>
+  </si>
+  <si>
+    <t>Пользователь User 16 написал сообщение 16 кенкен</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:25</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:31</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:37</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:43</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1 кеуке</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:49</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:40:58</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:41:12</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:42:18</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:42:26</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:42:31</t>
+  </si>
+  <si>
+    <t>Пользователь User 2 написал сообщение 2 кн</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:42:44</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:42:55</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:43:01</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:43:07</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1 вапро</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:43:22</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:43:27</t>
+  </si>
+  <si>
+    <t>Пользователь User 1 написал сообщение 1 ыкне</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:43:33</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:43:45</t>
+  </si>
+  <si>
+    <t>Пользователь User 17 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:44:01</t>
+  </si>
+  <si>
+    <t>Пользователь User 17 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:44:50</t>
+  </si>
+  <si>
+    <t>Пользователь User 17 вышел из системы (logout)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:45:18</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:45:29</t>
+  </si>
+  <si>
+    <t>Пользователь User 18 успешно прошёл регистрацию)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:45:41</t>
+  </si>
+  <si>
+    <t>Пользователь User 18 вошёл в систему (log in)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:45:45</t>
+  </si>
+  <si>
+    <t>Пользователь User 18 вошёл в систему (cookie value)</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:45:53</t>
+  </si>
+  <si>
+    <t>Пользователь User 18 написал сообщение 18: врповпрвпр</t>
+  </si>
+  <si>
+    <t>2024-07-18 11:46:38</t>
+  </si>
+  <si>
+    <t>Пользователь User 18 вышел из системы (logout)</t>
   </si>
 </sst>
 </file>
@@ -879,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -4250,6 +4532,534 @@
         <v>169</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
